--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13736.71239126596</v>
+        <v>2733605.765861927</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13736.71239126596</v>
+        <v>2733605.765861927</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37713.92065862565</v>
+        <v>2266912.585395654</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37713.92065862565</v>
+        <v>2266912.585395654</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190452813.489071</v>
+        <v>48487007.90637644</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12103.53824507125</v>
+        <v>1286934.72277412</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22223.25338969623</v>
+        <v>2235123.159720845</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32342.96853432119</v>
+        <v>3183311.596667571</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43554.18224443972</v>
+        <v>4100688.350023052</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54765.3959545582</v>
+        <v>5018065.103378532</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65324.82716892803</v>
+        <v>5965587.630318038</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75884.27051740664</v>
+        <v>6913112.571945195</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86443.71386588526</v>
+        <v>7860637.513572353</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97533.27050773955</v>
+        <v>8766211.499223342</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108677.8190020017</v>
+        <v>9682728.863503501</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119822.3674962639</v>
+        <v>10599246.22778366</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130966.9159905261</v>
+        <v>11515763.59206383</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>142111.4644847883</v>
+        <v>12432280.956344</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>153256.0129790505</v>
+        <v>13348798.32062417</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>164400.5614733126</v>
+        <v>14265315.68490433</v>
       </c>
     </row>
   </sheetData>
